--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC02_PLP_Check.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC02_PLP_Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8FC1B8-099E-4E5C-8C8F-541C0FC93A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF98593D-C0F3-44D2-9018-E478412C5ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
   <si>
     <t>TestCase</t>
   </si>
@@ -549,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -713,6 +713,7 @@
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
@@ -721,7 +722,7 @@
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -790,15 +791,11 @@
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
@@ -806,10 +803,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -819,7 +816,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -829,15 +826,28 @@
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -967,15 +977,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1172,6 +1173,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1179,14 +1189,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1205,6 +1207,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>

--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC02_PLP_Check.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC02_PLP_Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF98593D-C0F3-44D2-9018-E478412C5ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F607558D-FDCD-4C47-8790-4F8B9506CFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>TestCase</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>PDPQTY</t>
+  </si>
+  <si>
+    <t>WAIT</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -790,8 +793,8 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3"/>

--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC02_PLP_Check.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC02_PLP_Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F607558D-FDCD-4C47-8790-4F8B9506CFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145A45C8-1F6F-4FB9-80B4-F9E591D04A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -808,8 +808,8 @@
       <c r="C18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>17</v>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -980,6 +980,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1176,15 +1185,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1192,6 +1192,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1210,14 +1218,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>

--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC02_PLP_Check.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC02_PLP_Check.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145A45C8-1F6F-4FB9-80B4-F9E591D04A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124086C2-34E0-46C9-A9C9-F04F5C679EC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
   <si>
     <t>TestCase</t>
   </si>
@@ -124,19 +124,7 @@
     <t>brand_filter1</t>
   </si>
   <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>SubCategory</t>
-  </si>
-  <si>
-    <t>PLPTOPDP</t>
-  </si>
-  <si>
     <t>PDPQTY</t>
-  </si>
-  <si>
-    <t>WAIT</t>
   </si>
 </sst>
 </file>
@@ -552,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -789,69 +777,6 @@
       </c>
       <c r="E16" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +890,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="b">
         <v>1</v>
@@ -980,12 +905,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1186,15 +1108,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1219,10 +1145,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>